--- a/db/load/cdisc/ct/protocol/Protocol Terminology 2021-09-24.xlsx
+++ b/db/load/cdisc/ct/protocol/Protocol Terminology 2021-09-24.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/db/load/cdisc/ct/protocol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A385BA36-F7F0-8142-A584-B2F6745FA3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7F9604-9FEE-D34E-A75B-07186B4E3FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
@@ -20,20 +20,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Protocol Terminology 2021-09-24'!$A$1:$H$363</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2327" uniqueCount="1360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2357" uniqueCount="1360">
   <si>
     <t>Code</t>
   </si>
@@ -4216,7 +4207,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -4258,7 +4249,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4280,6 +4271,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4422,7 +4419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4483,6 +4480,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4763,7 +4763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -4870,12 +4870,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:DO363"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A350" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C366" sqref="C366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4919,7 +4919,9 @@
         <v>1246</v>
       </c>
       <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="C2" s="21" t="s">
+        <v>134</v>
+      </c>
       <c r="D2" s="10" t="s">
         <v>1247</v>
       </c>
@@ -6033,7 +6035,9 @@
         <v>8</v>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
+      <c r="C12" s="21" t="s">
+        <v>134</v>
+      </c>
       <c r="D12" s="10" t="s">
         <v>10</v>
       </c>
@@ -6970,7 +6974,9 @@
         <v>33</v>
       </c>
       <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
+      <c r="C19" s="21" t="s">
+        <v>134</v>
+      </c>
       <c r="D19" s="10" t="s">
         <v>34</v>
       </c>
@@ -9426,7 +9432,9 @@
         <v>932</v>
       </c>
       <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
+      <c r="C39" s="21" t="s">
+        <v>134</v>
+      </c>
       <c r="D39" s="10" t="s">
         <v>933</v>
       </c>
@@ -9714,7 +9722,9 @@
         <v>943</v>
       </c>
       <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
+      <c r="C42" s="21" t="s">
+        <v>134</v>
+      </c>
       <c r="D42" s="10" t="s">
         <v>944</v>
       </c>
@@ -10536,7 +10546,9 @@
         <v>1111</v>
       </c>
       <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
+      <c r="C49" s="21" t="s">
+        <v>134</v>
+      </c>
       <c r="D49" s="10" t="s">
         <v>1112</v>
       </c>
@@ -10826,7 +10838,9 @@
         <v>1122</v>
       </c>
       <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
+      <c r="C52" s="21" t="s">
+        <v>134</v>
+      </c>
       <c r="D52" s="10" t="s">
         <v>1123</v>
       </c>
@@ -11227,7 +11241,9 @@
         <v>1134</v>
       </c>
       <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
+      <c r="C55" s="21" t="s">
+        <v>134</v>
+      </c>
       <c r="D55" s="10" t="s">
         <v>1135</v>
       </c>
@@ -14845,7 +14861,9 @@
         <v>861</v>
       </c>
       <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
+      <c r="C87" s="21" t="s">
+        <v>134</v>
+      </c>
       <c r="D87" s="10" t="s">
         <v>862</v>
       </c>
@@ -15510,7 +15528,9 @@
         <v>962</v>
       </c>
       <c r="B92" s="10"/>
-      <c r="C92" s="10"/>
+      <c r="C92" s="21" t="s">
+        <v>134</v>
+      </c>
       <c r="D92" s="10" t="s">
         <v>963</v>
       </c>
@@ -16048,7 +16068,9 @@
         <v>877</v>
       </c>
       <c r="B96" s="10"/>
-      <c r="C96" s="10"/>
+      <c r="C96" s="21" t="s">
+        <v>134</v>
+      </c>
       <c r="D96" s="10" t="s">
         <v>878</v>
       </c>
@@ -16991,7 +17013,9 @@
         <v>512</v>
       </c>
       <c r="B103" s="10"/>
-      <c r="C103" s="10"/>
+      <c r="C103" s="21" t="s">
+        <v>134</v>
+      </c>
       <c r="D103" s="10" t="s">
         <v>976</v>
       </c>
@@ -17416,7 +17440,9 @@
         <v>183</v>
       </c>
       <c r="B107" s="10"/>
-      <c r="C107" s="10"/>
+      <c r="C107" s="21" t="s">
+        <v>134</v>
+      </c>
       <c r="D107" s="10" t="s">
         <v>184</v>
       </c>
@@ -18613,7 +18639,9 @@
         <v>1296</v>
       </c>
       <c r="B116" s="10"/>
-      <c r="C116" s="10"/>
+      <c r="C116" s="21" t="s">
+        <v>134</v>
+      </c>
       <c r="D116" s="10" t="s">
         <v>1297</v>
       </c>
@@ -19175,7 +19203,9 @@
         <v>213</v>
       </c>
       <c r="B121" s="10"/>
-      <c r="C121" s="10"/>
+      <c r="C121" s="21" t="s">
+        <v>134</v>
+      </c>
       <c r="D121" s="10" t="s">
         <v>977</v>
       </c>
@@ -21355,7 +21385,9 @@
         <v>269</v>
       </c>
       <c r="B139" s="10"/>
-      <c r="C139" s="10"/>
+      <c r="C139" s="21" t="s">
+        <v>134</v>
+      </c>
       <c r="D139" s="10" t="s">
         <v>270</v>
       </c>
@@ -24041,7 +24073,9 @@
         <v>1318</v>
       </c>
       <c r="B160" s="10"/>
-      <c r="C160" s="10"/>
+      <c r="C160" s="21" t="s">
+        <v>134</v>
+      </c>
       <c r="D160" s="10" t="s">
         <v>1319</v>
       </c>
@@ -25290,7 +25324,9 @@
         <v>292</v>
       </c>
       <c r="B171" s="10"/>
-      <c r="C171" s="10"/>
+      <c r="C171" s="21" t="s">
+        <v>134</v>
+      </c>
       <c r="D171" s="10" t="s">
         <v>978</v>
       </c>
@@ -26227,7 +26263,9 @@
         <v>989</v>
       </c>
       <c r="B178" s="10"/>
-      <c r="C178" s="10"/>
+      <c r="C178" s="21" t="s">
+        <v>134</v>
+      </c>
       <c r="D178" s="10" t="s">
         <v>990</v>
       </c>
@@ -26787,7 +26825,9 @@
         <v>1016</v>
       </c>
       <c r="B183" s="10"/>
-      <c r="C183" s="10"/>
+      <c r="C183" s="21" t="s">
+        <v>134</v>
+      </c>
       <c r="D183" s="10" t="s">
         <v>1017</v>
       </c>
@@ -27857,7 +27897,9 @@
         <v>310</v>
       </c>
       <c r="B191" s="10"/>
-      <c r="C191" s="10"/>
+      <c r="C191" s="21" t="s">
+        <v>134</v>
+      </c>
       <c r="D191" s="10" t="s">
         <v>311</v>
       </c>
@@ -28951,7 +28993,9 @@
         <v>338</v>
       </c>
       <c r="B200" s="10"/>
-      <c r="C200" s="10"/>
+      <c r="C200" s="21" t="s">
+        <v>134</v>
+      </c>
       <c r="D200" s="10" t="s">
         <v>339</v>
       </c>
@@ -31008,7 +31052,9 @@
         <v>821</v>
       </c>
       <c r="B217" s="10"/>
-      <c r="C217" s="10"/>
+      <c r="C217" s="21" t="s">
+        <v>134</v>
+      </c>
       <c r="D217" s="10" t="s">
         <v>822</v>
       </c>
@@ -32364,7 +32410,9 @@
         <v>920</v>
       </c>
       <c r="B228" s="10"/>
-      <c r="C228" s="10"/>
+      <c r="C228" s="21" t="s">
+        <v>134</v>
+      </c>
       <c r="D228" s="10" t="s">
         <v>921</v>
       </c>
@@ -32896,7 +32944,9 @@
         <v>737</v>
       </c>
       <c r="B232" s="10"/>
-      <c r="C232" s="10"/>
+      <c r="C232" s="21" t="s">
+        <v>134</v>
+      </c>
       <c r="D232" s="10" t="s">
         <v>738</v>
       </c>
@@ -34788,7 +34838,9 @@
         <v>1202</v>
       </c>
       <c r="B247" s="10"/>
-      <c r="C247" s="10"/>
+      <c r="C247" s="21" t="s">
+        <v>134</v>
+      </c>
       <c r="D247" s="10" t="s">
         <v>1203</v>
       </c>
@@ -35860,7 +35912,9 @@
         <v>1045</v>
       </c>
       <c r="B255" s="10"/>
-      <c r="C255" s="10"/>
+      <c r="C255" s="21" t="s">
+        <v>134</v>
+      </c>
       <c r="D255" s="10" t="s">
         <v>1046</v>
       </c>
@@ -37393,7 +37447,9 @@
         <v>1052</v>
       </c>
       <c r="B269" s="10"/>
-      <c r="C269" s="10"/>
+      <c r="C269" s="21" t="s">
+        <v>134</v>
+      </c>
       <c r="D269" s="10" t="s">
         <v>1053</v>
       </c>
@@ -37533,7 +37589,9 @@
         <v>399</v>
       </c>
       <c r="B275" s="10"/>
-      <c r="C275" s="10"/>
+      <c r="C275" s="21" t="s">
+        <v>134</v>
+      </c>
       <c r="D275" s="10" t="s">
         <v>400</v>
       </c>
@@ -37897,7 +37955,9 @@
         <v>452</v>
       </c>
       <c r="B291" s="10"/>
-      <c r="C291" s="10"/>
+      <c r="C291" s="21" t="s">
+        <v>134</v>
+      </c>
       <c r="D291" s="10" t="s">
         <v>979</v>
       </c>
@@ -39553,7 +39613,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H363"/>
+  <autoFilter ref="A1:H363" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
